--- a/Data/applications.xlsx
+++ b/Data/applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D4E0F-0244-48FF-9574-0E0BE63547D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D93BB-1205-43AE-BAC3-03F14D1C20CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/applications.xlsx
+++ b/Data/applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543DDA2-D589-419D-8BEB-0E4172E192CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE4CD5-9D83-4E00-8709-842B953E2223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,12 @@
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="11" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" style="19" customWidth="1"/>
     <col min="13" max="14" width="20.44140625" customWidth="1"/>
     <col min="15" max="16" width="14.6640625" customWidth="1"/>

--- a/Data/applications.xlsx
+++ b/Data/applications.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpa\finalproject\uipath\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE4CD5-9D83-4E00-8709-842B953E2223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6450B06B-B810-4A3C-91B6-A2BBD794F9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
+    <workbookView xWindow="1848" yWindow="1920" windowWidth="21192" windowHeight="10596" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="159">
   <si>
     <t>Đặng Ngọc Mai</t>
   </si>
@@ -508,6 +499,9 @@
   </si>
   <si>
     <t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</t>
+  </si>
+  <si>
+    <t>033301007320</t>
   </si>
 </sst>
 </file>
@@ -690,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,6 +743,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3319C647-C931-4013-AEBB-0D4D2971FF81}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,8 +1189,8 @@
       <c r="I2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="1">
-        <v>33301007320</v>
+      <c r="J2" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>111</v>
@@ -1258,7 +1255,7 @@
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="16"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
@@ -1326,7 +1323,7 @@
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="22">
         <v>89854219200</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -1392,7 +1389,7 @@
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="22">
         <v>39667525772</v>
       </c>
       <c r="K5" s="16" t="s">
@@ -1458,7 +1455,7 @@
       <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="22">
         <v>34153706524</v>
       </c>
       <c r="K6" s="16" t="s">
@@ -1524,7 +1521,7 @@
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="22">
         <v>15446733779</v>
       </c>
       <c r="K7" s="16" t="s">
@@ -1590,7 +1587,7 @@
       <c r="I8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="22">
         <v>40261367986</v>
       </c>
       <c r="K8" s="16" t="s">
@@ -1656,7 +1653,7 @@
       <c r="I9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="16"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
@@ -1724,7 +1721,7 @@
       <c r="I10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="22">
         <v>12646406653</v>
       </c>
       <c r="K10" s="16" t="s">
@@ -1790,7 +1787,7 @@
       <c r="I11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="22">
         <v>64845344238</v>
       </c>
       <c r="K11" s="16" t="s">
@@ -1856,7 +1853,7 @@
       <c r="I12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="22">
         <v>51345661305</v>
       </c>
       <c r="K12" s="16" t="s">
@@ -1922,7 +1919,7 @@
       <c r="I13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="22">
         <v>37066501525</v>
       </c>
       <c r="K13" s="16" t="s">
@@ -1988,7 +1985,7 @@
       <c r="I14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="22">
         <v>27892219410</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -2053,7 +2050,7 @@
       <c r="I15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="22">
         <v>84738508014</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -2118,7 +2115,7 @@
       <c r="I16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="22">
         <v>8782117608</v>
       </c>
       <c r="K16" s="16" t="s">
@@ -2154,6 +2151,9 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2165,5 +2165,8 @@
     <hyperlink ref="S3" r:id="rId6" xr:uid="{6F3282A7-801A-4539-B43C-10FFDDF3F0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Data/applications.xlsx
+++ b/Data/applications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADE4CD5-9D83-4E00-8709-842B953E2223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12284ACC-DA9C-4223-8E49-0AAB2299E3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="161">
   <si>
     <t>Đặng Ngọc Mai</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>hoangthanhhieu@gmail.com</t>
-  </si>
-  <si>
     <t>138 Tran Hung Dao, Hoan Kiem, Da Nang, Viet Nam</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Bùi Quang Trang</t>
   </si>
   <si>
-    <t>buiquangtrang@gmail.com</t>
-  </si>
-  <si>
     <t>105 Nguyen Hue, Quan 3, Hai Phong, Viet Nam</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>ngoquangthinh@gmail.com</t>
   </si>
   <si>
-    <t>124 Nguyen Hue, Quan 7, Can Tho, Viet Nam</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=kdNR0Dge0se8iluz6n7z</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>lyducan@gmail.com</t>
   </si>
   <si>
-    <t>160 Ly Thuong Kiet, Dong Da, TP Ho Chi Minh, Viet Nam</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=IHn7SzGzME3YCqeNDFcx</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>+91 5686348183</t>
   </si>
   <si>
-    <t>danamann@gmail.com</t>
-  </si>
-  <si>
     <t>4324 Jim Trace Apt. 582, Port Jonathon, WA 84373</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>Hoàng Anh Yến</t>
   </si>
   <si>
-    <t>15/11/1999</t>
-  </si>
-  <si>
     <t>hoanganhyen@gmail.com</t>
   </si>
   <si>
@@ -508,6 +490,33 @@
   </si>
   <si>
     <t>113/1 Lý Thường Kiệt, Quận 2, Việt Nam</t>
+  </si>
+  <si>
+    <t>160 Ly Thuong Kiet, Dong Da, Viet Nam</t>
+  </si>
+  <si>
+    <t>15/11/1998</t>
+  </si>
+  <si>
+    <t>06/08/1992</t>
+  </si>
+  <si>
+    <t>07/05/1983</t>
+  </si>
+  <si>
+    <t>11/11/1976</t>
+  </si>
+  <si>
+    <t>12/08/1999</t>
+  </si>
+  <si>
+    <t>06/09/1997</t>
+  </si>
+  <si>
+    <t>camtulearning@gmail.com</t>
+  </si>
+  <si>
+    <t>124 Nguyen Hue, Quan 7, Ho Chi Minh, Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -690,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -727,9 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1069,7 +1075,7 @@
   <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,78 +1090,78 @@
     <col min="8" max="8" width="33.33203125" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
     <col min="10" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="18" customWidth="1"/>
     <col min="13" max="14" width="20.44140625" customWidth="1"/>
     <col min="15" max="16" width="14.6640625" customWidth="1"/>
     <col min="17" max="22" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="N1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="R1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -1165,16 +1171,16 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>142</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="B2" s="2">
         <v>45858.976400462961</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1190,16 +1196,16 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J2" s="1">
         <v>33301007320</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>112</v>
+      <c r="K2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1212,7 +1218,7 @@
         <v>8000000</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T2" s="12">
         <v>20000000</v>
@@ -1221,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -1232,7 +1238,7 @@
     </row>
     <row r="3" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2">
         <v>45863.987569444442</v>
@@ -1259,19 +1265,19 @@
         <v>12</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>5</v>
@@ -1280,7 +1286,7 @@
         <v>12000000</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T3" s="12">
         <v>30000000</v>
@@ -1289,7 +1295,7 @@
         <v>15</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -1300,16 +1306,16 @@
     </row>
     <row r="4" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2">
         <v>45895.756574074076</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13">
-        <v>30502</v>
+      <c r="D4" t="s">
+        <v>155</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -1320,42 +1326,42 @@
       <c r="G4" s="1">
         <v>836426617</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J4" s="1">
         <v>89854219200</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="R4" s="12">
         <v>5000000</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T4" s="12">
         <v>15000000</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -1366,16 +1372,16 @@
     </row>
     <row r="5" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2">
         <v>45895.770937499998</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13">
-        <v>28075</v>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -1386,42 +1392,42 @@
       <c r="G5" s="1">
         <v>878061855</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
+      <c r="H5" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1">
         <v>39667525772</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>28</v>
+      <c r="K5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R5" s="12">
         <v>20000000</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T5" s="12">
         <v>40000000</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -1432,62 +1438,64 @@
     </row>
     <row r="6" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2">
-        <v>45895.817094907405</v>
+        <v>45896.050011574072</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>761209301</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1">
-        <v>34153706524</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="Q6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R6" s="12">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="T6" s="12">
-        <v>25000000</v>
+        <v>24000000</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -1498,16 +1506,16 @@
     </row>
     <row r="7" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2">
-        <v>45895.846377314818</v>
+        <v>45895.817094907405</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -1516,44 +1524,44 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>929771395</v>
+        <v>761209301</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1">
-        <v>15446733779</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>43</v>
+        <v>34153706524</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="R7" s="12">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T7" s="12">
-        <v>100000000</v>
+        <v>25000000</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -1564,16 +1572,16 @@
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B8" s="2">
         <v>45895.936550925922</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="13">
-        <v>33763</v>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -1584,33 +1592,33 @@
       <c r="G8" s="1">
         <v>787466707</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="J8" s="1">
         <v>40261367986</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>49</v>
+      <c r="K8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R8" s="12">
         <v>8000000</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T8" s="12">
         <v>24000000</v>
@@ -1619,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -1630,64 +1638,62 @@
     </row>
     <row r="9" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2">
-        <v>45896.050011574072</v>
+        <v>45895.846377314818</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>929771395</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J9" s="1">
+        <v>15446733779</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="R9" s="12">
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="T9" s="12">
-        <v>24000000</v>
+        <v>100000000</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1698,16 +1704,16 @@
     </row>
     <row r="10" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2">
         <v>45896.120613425926</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1719,32 +1725,32 @@
         <v>847834130</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1">
         <v>12646406653</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>65</v>
+      <c r="K10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R10" s="12">
         <v>50000000</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="T10" s="12">
         <v>150000000</v>
@@ -1753,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1764,16 +1770,16 @@
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2">
         <v>45896.203032407408</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
@@ -1785,41 +1791,41 @@
         <v>779971788</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1">
         <v>64845344238</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>72</v>
+      <c r="K11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R11" s="12">
         <v>50000000</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="T11" s="12">
         <v>150000000</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1830,16 +1836,16 @@
     </row>
     <row r="12" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2">
         <v>45896.37195601852</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -1851,32 +1857,32 @@
         <v>790676752</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1">
         <v>51345661305</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>79</v>
+      <c r="K12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R12" s="12">
         <v>8000000</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T12" s="12">
         <v>24000000</v>
@@ -1885,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1896,16 +1902,16 @@
     </row>
     <row r="13" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2">
         <v>45896.458865740744</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="13">
-        <v>36502</v>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>2</v>
@@ -1917,41 +1923,41 @@
         <v>986380163</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1">
         <v>37066501525</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>85</v>
+      <c r="K13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R13" s="12">
         <v>5000000</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="T13" s="12">
         <v>10000000</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1962,16 +1968,16 @@
     </row>
     <row r="14" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2">
         <v>45896.502928240741</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>2</v>
@@ -1983,19 +1989,19 @@
         <v>890571743</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J14" s="1">
         <v>27892219410</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>124</v>
+      <c r="K14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2008,16 +2014,16 @@
         <v>5000000</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="T14" s="12">
         <v>15000000</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -2027,16 +2033,16 @@
     </row>
     <row r="15" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2">
         <v>45896.774340277778</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -2048,41 +2054,41 @@
         <v>862070786</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J15" s="1">
         <v>84738508014</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>131</v>
+      <c r="K15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R15" s="12">
         <v>12000000</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="T15" s="12">
         <v>36000000</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2092,16 +2098,16 @@
     </row>
     <row r="16" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2">
         <v>45896.874236111114</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="13">
-        <v>35590</v>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>2</v>
@@ -2113,32 +2119,32 @@
         <v>828800934</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J16" s="1">
         <v>8782117608</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>137</v>
+      <c r="K16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="R16" s="12">
         <v>50000000</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="T16" s="12">
         <v>150000000</v>
@@ -2147,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -2163,6 +2169,10 @@
     <hyperlink ref="O3" r:id="rId4" xr:uid="{422AB67A-7A11-492E-AF77-9A75090B1965}"/>
     <hyperlink ref="P3" r:id="rId5" xr:uid="{D08702A8-2C88-4121-948D-EAFF80C7B893}"/>
     <hyperlink ref="S3" r:id="rId6" xr:uid="{6F3282A7-801A-4539-B43C-10FFDDF3F0B8}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{874E4217-2881-46D6-86C8-7E0E58914961}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{9756966D-5382-4BF9-9C66-BA6DF2996102}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{386200CD-8B6A-4E73-A2C1-7A3F8E0C2625}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{FE1D6D97-3D84-4DD1-9E33-19E613665EDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
